--- a/Assignment_02/2.1/Results.xlsx
+++ b/Assignment_02/2.1/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixwaldschock/Documents/gits/Chalmers_TME286_IntelligentAgents/Assignment_02/2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927C9341-786C-A249-8269-2603C5317A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A7518E-3FC1-364F-ACD6-A39897A66E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" xr2:uid="{ACF2D1AA-81B6-5346-A18C-5AFBA31DC14C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16940" activeTab="1" xr2:uid="{ACF2D1AA-81B6-5346-A18C-5AFBA31DC14C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Speaker A</t>
   </si>
@@ -123,6 +124,21 @@
   </si>
   <si>
     <t>what ?</t>
+  </si>
+  <si>
+    <t>BLEU Score</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>sensibleness</t>
+  </si>
+  <si>
+    <t>specificity</t>
   </si>
 </sst>
 </file>
@@ -166,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,11 +205,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -201,6 +228,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,137 +544,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87A77EA-6775-D940-8855-F4709EC06382}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:C11"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCellId="2" sqref="B1:B11 D1:D11 A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(C15:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E24" si="0">AVERAGE(C16:D16)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8EE39F-E81E-3149-843B-4A06319E4EDC}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
